--- a/downloaded_files/EECS201_Lecture-35295.xlsx
+++ b/downloaded_files/EECS201_Lecture-35295.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed amr ebrahim elmasry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم رأفت محمد عبدالوهاب فرحات</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Raafat Mohammed Farahat</x:t>
   </x:si>
   <x:si>
     <x:t>1220202</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4149804398</x:v>
+        <x:v>45921.4019155903</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.9661691319</x:v>
+        <x:v>45909.4149804398</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.975794294</x:v>
+        <x:v>45915.9661691319</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45915.975794294</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6650138542</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45906.6650138542</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Lecture-35295.xlsx
+++ b/downloaded_files/EECS201_Lecture-35295.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Ashraf Mahmoud Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد شوقي عبد السلام محمد عتمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohammed Shawki  Abdelsalam Mohammed Attman</x:t>
   </x:si>
   <x:si>
     <x:t>1220131</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -706,8 +697,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.300625000000004" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="59.530625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.810625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.240625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1205,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.6349271991</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45915.9772393171</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9772393171</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45909.4156296643</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4156296643</x:v>
+        <x:v>45909.8206471412</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.8206471412</x:v>
+        <x:v>45921.4019155903</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.4019155903</x:v>
+        <x:v>45909.4149804398</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4149804398</x:v>
+        <x:v>45915.9661691319</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.9661691319</x:v>
+        <x:v>45915.975794294</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.975794294</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.6650138542</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.6650138542</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Lecture-35295.xlsx
+++ b/downloaded_files/EECS201_Lecture-35295.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>Mariam Raafat Mohammed Farahat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفي أسامة عبدالحميد توفيق عبد الحميد نصار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Usama Abdelhameed Tawfeek Abdelhameed Nassar</x:t>
   </x:si>
   <x:si>
     <x:t>1220202</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -697,8 +706,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="32.810625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.240625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="53.850625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4149804398</x:v>
+        <x:v>45924.0410699421</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.9661691319</x:v>
+        <x:v>45909.4149804398</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.975794294</x:v>
+        <x:v>45915.9661691319</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45915.975794294</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6650138542</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45906.6650138542</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Lecture-35295.xlsx
+++ b/downloaded_files/EECS201_Lecture-35295.xlsx
@@ -96,6 +96,15 @@
     <x:t>Rehab Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
   </x:si>
   <x:si>
+    <x:t>1210238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى ناصر عبدالوهاب الحسيني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Nasser Abdelwahab Elhosseiny</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210243</x:t>
   </x:si>
   <x:si>
@@ -247,15 +256,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Tamer Mostafa Alsayed Abuelfadl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>معاذ محمد السيد هاشم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moaz Mohamed Alsayed Hashem</x:t>
   </x:si>
   <x:si>
     <x:t>1230280</x:t>
@@ -1013,7 +1013,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.9712658218</x:v>
+        <x:v>45927.056968831</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45915.9712658218</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4149113426</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4158237616</x:v>
+        <x:v>45909.4149113426</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.1112114583</x:v>
+        <x:v>45907.4158237616</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45914.1112114583</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9772393171</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45915.9772393171</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4156296643</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.8206471412</x:v>
+        <x:v>45909.4156296643</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.4019155903</x:v>
+        <x:v>45909.8206471412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45924.0410699421</x:v>
+        <x:v>45921.4019155903</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4149804398</x:v>
+        <x:v>45924.0410699421</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.9661691319</x:v>
+        <x:v>45909.4149804398</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>

--- a/downloaded_files/EECS201_Lecture-35295.xlsx
+++ b/downloaded_files/EECS201_Lecture-35295.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -141,15 +141,6 @@
     <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد احمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Mohamed Ahmed Mahmoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210014</x:t>
   </x:si>
   <x:si>
@@ -159,6 +150,15 @@
     <x:t>Abdelrahman Ashraf Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>4230179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمود ابراهيم محمد هيكل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220131</x:t>
   </x:si>
   <x:si>
@@ -220,15 +220,6 @@
   </x:si>
   <x:si>
     <x:t>Maged Amgad Rasmy Wadi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو ابراهيم المصري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1230256</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1173,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.1112114583</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45927.4143021644</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.8206471412</x:v>
+        <x:v>45921.4019155903</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.4019155903</x:v>
+        <x:v>45924.0410699421</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45924.0410699421</x:v>
+        <x:v>45909.4149804398</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4149804398</x:v>
+        <x:v>45915.975794294</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.975794294</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.6650138542</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.6650138542</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Lecture-35295.xlsx
+++ b/downloaded_files/EECS201_Lecture-35295.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -96,15 +96,6 @@
     <x:t>Rehab Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
   </x:si>
   <x:si>
-    <x:t>1210238</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى ناصر عبدالوهاب الحسيني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Nasser Abdelwahab Elhosseiny</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210243</x:t>
   </x:si>
   <x:si>
@@ -186,6 +177,15 @@
     <x:t>Amr Magdy Mohamed Abo Elsoud</x:t>
   </x:si>
   <x:si>
+    <x:t>4230161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فراس اشرف محمد عبدالرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fras Ashraf Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210070</x:t>
   </x:si>
   <x:si>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Waleed hisham abdelhamid hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيي ايمن احمد عبد المقصود احمد خلف الله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yahia Ayman Ahmed Abdelmaksoud Ahmed Khalafallah</x:t>
   </x:si>
   <x:si>
     <x:t>1210334</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1004,7 +1013,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.056968831</x:v>
+        <x:v>45915.9712658218</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.9712658218</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45909.4149113426</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4149113426</x:v>
+        <x:v>45907.4158237616</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4158237616</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45927.4143021644</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4143021644</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45915.9772393171</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9772393171</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45927.8509209144</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45927.8533488079</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6650138542</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45906.6650138542</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Lecture-35295.xlsx
+++ b/downloaded_files/EECS201_Lecture-35295.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -96,6 +96,15 @@
     <x:t>Rehab Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
   </x:si>
   <x:si>
+    <x:t>1210238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى ناصر عبدالوهاب الحسيني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Nasser Abdelwahab Elhosseiny</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210243</x:t>
   </x:si>
   <x:si>
@@ -247,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Tamer Mostafa Alsayed Abuelfadl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نوران شمس الدين محمد علوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nouran Shams Eldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1230280</x:t>
@@ -398,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1013,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.9712658218</x:v>
+        <x:v>45928.4153157407</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1063,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45915.9712658218</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1095,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4149113426</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4158237616</x:v>
+        <x:v>45909.4149113426</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45907.4158237616</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4143021644</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45927.4143021644</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9772393171</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45915.9772393171</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.8509209144</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45927.8509209144</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4156296643</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.4019155903</x:v>
+        <x:v>45909.4156296643</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45924.0410699421</x:v>
+        <x:v>45921.4019155903</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4149804398</x:v>
+        <x:v>45924.0410699421</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.975794294</x:v>
+        <x:v>45909.4149804398</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.8533488079</x:v>
+        <x:v>45928.5846795949</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45915.975794294</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6650138542</x:v>
+        <x:v>45927.8533488079</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1688,70 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45906.4144973032</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45906.6650138542</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Lecture-35295.xlsx
+++ b/downloaded_files/EECS201_Lecture-35295.xlsx
@@ -51,6 +51,15 @@
     <x:t>Amira Ibrahim Ahmed Ibrahim Mohamed El-Garf</x:t>
   </x:si>
   <x:si>
+    <x:t>1210200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اميره محمد عصام احمد عبدالغني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amira Mohamed Essam Ahmed Abdelghany</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220038</x:t>
   </x:si>
   <x:si>
@@ -229,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>Maged Amgad Rasmy Wadi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم رأفت محمد عبدالوهاب فرحات</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Raafat Mohammed Farahat</x:t>
   </x:si>
   <x:si>
     <x:t>1210377</x:t>
@@ -871,7 +871,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4210927431</x:v>
+        <x:v>45932.4545988773</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -903,7 +903,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6651888889</x:v>
+        <x:v>45907.4210927431</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -935,7 +935,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.5376210995</x:v>
+        <x:v>45906.6651888889</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -967,7 +967,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.9526060532</x:v>
+        <x:v>45907.5376210995</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -999,7 +999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4143678588</x:v>
+        <x:v>45915.9526060532</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1031,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45928.4153157407</x:v>
+        <x:v>45906.4143678588</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1063,7 +1063,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.9712658218</x:v>
+        <x:v>45928.4153157407</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1095,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45915.9712658218</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4149113426</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4158237616</x:v>
+        <x:v>45909.4149113426</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45907.4158237616</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4143021644</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.7244450579</x:v>
+        <x:v>45927.4143021644</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9772393171</x:v>
+        <x:v>45906.7244450579</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45915.9772393171</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.8509209144</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45927.8509209144</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4156296643</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.4019155903</x:v>
+        <x:v>45909.4156296643</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>

--- a/downloaded_files/EECS201_Lecture-35295.xlsx
+++ b/downloaded_files/EECS201_Lecture-35295.xlsx
@@ -147,7 +147,7 @@
     <x:t>عبد الرحمن على السيد محمد السيد الحديدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
+    <x:t>Abdul Rahman Ali Elsayed Muhammad Elsayed Alhadidi</x:t>
   </x:si>
   <x:si>
     <x:t>1210014</x:t>

--- a/downloaded_files/EECS201_Lecture-35295.xlsx
+++ b/downloaded_files/EECS201_Lecture-35295.xlsx
@@ -228,7 +228,7 @@
     <x:t>لؤى احمد كمال عبدالغفار عثمان</x:t>
   </x:si>
   <x:si>
-    <x:t>Loay Ahmed Kamal Abdul Ghaffar Othman</x:t>
+    <x:t>Loay Ahmed Kamal Abdelghafar Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1210375</x:t>
